--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -16,43 +16,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>DemoSalesManager</t>
-  </si>
-  <si>
-    <t>crmsfa</t>
-  </si>
-  <si>
-    <t>DemoCSR</t>
-  </si>
-  <si>
-    <t>Demo B2B CSR</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Demo Sales Manager</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>countryName</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>bhuvana@gmail.com</t>
+  </si>
+  <si>
+    <t>pass1word</t>
+  </si>
+  <si>
+    <t>pass2word</t>
+  </si>
+  <si>
+    <t>bhuvana1@gmail.com</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13.2"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,15 +103,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,12 +413,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,34 +431,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
